--- a/biology/Zoologie/Cynoscion_acoupa/Cynoscion_acoupa.xlsx
+++ b/biology/Zoologie/Cynoscion_acoupa/Cynoscion_acoupa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynoscion acoupa, communément appelé en français Acoupa Toeroe, Akoupa ou Courbine[3], est un poisson de mer de la famille des Sciaenidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynoscion acoupa, communément appelé en français Acoupa Toeroe, Akoupa ou Courbine, est un poisson de mer de la famille des Sciaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynoscion acoupa se rencontre dans les eaux occidentales de l'océan Atlantique, du Panama à l'Argentine[3]. Cette espèce vit jusqu'à 22 m de profondeur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynoscion acoupa se rencontre dans les eaux occidentales de l'océan Atlantique, du Panama à l'Argentine. Cette espèce vit jusqu'à 22 m de profondeur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Cynoscion acoupa est de 110 cm et un poids maximal de 17,0 kg[4] et sa taille habituelle est d'environ 45 cm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Cynoscion acoupa est de 110 cm et un poids maximal de 17,0 kg et sa taille habituelle est d'environ 45 cm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(fr) Lacepède, 1801 : Histoire naturelle des poissons. vol. 3, p. 1-558 (texte intégral)[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(fr) Lacepède, 1801 : Histoire naturelle des poissons. vol. 3, p. 1-558 (texte intégral).</t>
         </is>
       </c>
     </row>
